--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,12 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,15 +70,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -91,79 +91,82 @@
     <t>thank</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -527,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +541,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +623,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -696,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6986301369863014</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C5">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D5">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -746,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.36</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
@@ -846,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3174603174603174</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>129</v>
+        <v>344</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
@@ -920,13 +923,13 @@
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1825396825396825</v>
+        <v>0.1865079365079365</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1023,13 @@
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1049,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1098,13 +1101,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.746031746031746</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1124,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7452830188679245</v>
+        <v>0.7375</v>
       </c>
       <c r="L15">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="M15">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1150,13 +1153,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7450980392156863</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1176,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1202,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.675</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1228,13 +1231,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6458333333333334</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1254,13 +1257,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6266318537859008</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1280,13 +1283,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5617647058823529</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L21">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="M21">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1306,13 +1309,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1332,13 +1335,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5168539325842697</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>43</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1358,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5118644067796611</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L24">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>144</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1384,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4769230769230769</v>
+        <v>0.5104602510460251</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1410,13 +1413,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4657534246575342</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1436,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1462,13 +1465,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4518828451882845</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L28">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>131</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1488,13 +1491,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4230769230769231</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1514,13 +1517,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.3714285714285714</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1540,13 +1543,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.1220095693779904</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1566,13 +1569,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.09615384615384616</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1592,13 +1595,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.07158836689038031</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1618,13 +1621,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.04328523862375139</v>
+        <v>0.04994450610432852</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1644,25 +1647,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.02707749766573296</v>
+        <v>0.03117782909930716</v>
       </c>
       <c r="L35">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2084</v>
+        <v>839</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1670,25 +1673,51 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.01386202450032237</v>
+        <v>0.02618045815801777</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O36">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3059</v>
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.0145114479200258</v>
+      </c>
+      <c r="L37">
+        <v>45</v>
+      </c>
+      <c r="M37">
+        <v>51</v>
+      </c>
+      <c r="N37">
+        <v>0.88</v>
+      </c>
+      <c r="O37">
+        <v>0.12</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3056</v>
       </c>
     </row>
   </sheetData>
